--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_23.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>139262.166234708</v>
+        <v>117397.2506240577</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7282096.494983046</v>
+        <v>7282096.494983047</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0006753805432</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>51.85635008141301</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>302.4344815384225</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>17.55575211235108</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,16 +1066,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6.90848140332574</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>123.0947788415577</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>296.2138270568548</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>70.40870439282122</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>128.8382509449108</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>93.1068961871009</v>
       </c>
       <c r="U11" t="n">
-        <v>81.12200652863734</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.3236091729816</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801578</v>
@@ -1579,10 +1579,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>234.9617328083347</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>372.5327915267488</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1807,25 +1807,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903397</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>321.5584859445101</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>128.7835007017901</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2087,16 +2087,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>84.95149223441572</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,25 +2126,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>122.2913072503385</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1271626621467</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>16.88986550434877</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2324,16 +2324,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>48.43260517378926</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>58.49852621786721</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22769775781623</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>216.6993815150876</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228949</v>
+        <v>296.7607853996629</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.0555388225931</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,19 +3029,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>237.6596569995503</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>285.5453800016779</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.0555388225931</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>99.34907199631425</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,13 +3272,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>408.8742649987725</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>155.4526127311943</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>389.0396295043333</v>
+        <v>313.4487771850591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>153.7066665474637</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>360.9888294615358</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>18.08991703025443</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>29.16584928708748</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>4.020123643055946</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>201.089163843681</v>
       </c>
       <c r="U46" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1550.100961840373</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C2" t="n">
-        <v>1550.100961840373</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2644.768939420836</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2644.768939420836</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2313.706052077265</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2313.706052077265</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1940.240293816185</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1550.100961840373</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4425,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,43 +4492,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2503.238520390624</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2249.476735028716</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1918.413847685145</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1565.645192415031</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>1192.179434153951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1873.842488573869</v>
+        <v>802.0401021781393</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>721.1507201626711</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702.283515201396</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C8" t="n">
-        <v>1333.320998260985</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>975.0552996542342</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>589.2670470559899</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>178.2811422663823</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.422847177208</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.283515201396</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>479.4455030671483</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>190.2718927217162</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V10" t="n">
-        <v>190.2718927217162</v>
+        <v>229.739153672332</v>
       </c>
       <c r="W10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>781.1711973675267</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C11" t="n">
-        <v>412.2086804271149</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5039,7 +5039,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733127</v>
@@ -5069,22 +5069,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2603.101721132262</v>
       </c>
       <c r="U11" t="n">
-        <v>2615.207670282225</v>
+        <v>2349.339935770353</v>
       </c>
       <c r="V11" t="n">
-        <v>2284.144782938654</v>
+        <v>2349.339935770353</v>
       </c>
       <c r="W11" t="n">
-        <v>1931.37612766854</v>
+        <v>2349.339935770353</v>
       </c>
       <c r="X11" t="n">
-        <v>1557.91036940746</v>
+        <v>1975.874177509273</v>
       </c>
       <c r="Y11" t="n">
-        <v>1167.771037431648</v>
+        <v>1585.734845533462</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5121,13 +5121,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5139,22 +5139,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>196.6941021971136</v>
       </c>
       <c r="H13" t="n">
         <v>53.94298182036445</v>
@@ -5218,31 +5218,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124031</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810048</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1954.241103772296</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C14" t="n">
-        <v>1585.278586831885</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D14" t="n">
-        <v>1227.012888225134</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E14" t="n">
-        <v>841.2246356268899</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>430.2387308372824</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5279,10 +5279,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.380435748108</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.380435748108</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y14" t="n">
-        <v>1954.241103772296</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="15">
@@ -5358,10 +5358,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
         <v>1194.968834417902</v>
@@ -5455,22 +5455,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
         <v>53.94298182036445</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1902.75190621448</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C17" t="n">
-        <v>1533.789389274068</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>1175.523690667317</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>789.7354380690731</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>378.7495332794655</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5552,13 +5552,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2289.351746278601</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X17" t="n">
-        <v>2289.351746278601</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y17" t="n">
-        <v>2289.351746278601</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5695,13 +5695,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
         <v>598.0446400632119</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1194.175505447095</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C20" t="n">
-        <v>825.2129885066836</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D20" t="n">
-        <v>466.9472898999331</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E20" t="n">
-        <v>381.1377017843616</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748109</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487029</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511217</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="H22" t="n">
         <v>2022.963088632153</v>
@@ -5914,46 +5914,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018223</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018223</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="V22" t="n">
-        <v>2442.464602812336</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="W22" t="n">
-        <v>2425.404132605923</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="X22" t="n">
-        <v>2425.404132605923</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="Y22" t="n">
-        <v>2204.611553462393</v>
+        <v>2180.667293341392</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1215.881273373639</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C23" t="n">
-        <v>846.9187564332271</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D23" t="n">
-        <v>488.6530578264766</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E23" t="n">
-        <v>102.8648052282324</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>2366.086203674652</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X23" t="n">
-        <v>1992.620445413572</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y23" t="n">
-        <v>1602.481113437761</v>
+        <v>1108.365917331524</v>
       </c>
     </row>
     <row r="24">
@@ -6042,67 +6042,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L24" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>291.796031170308</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>122.8598482424011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>122.8598482424011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>122.8598482424011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>122.8598482424011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064346</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064346</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V25" t="n">
-        <v>473.4444960005477</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W25" t="n">
-        <v>473.4444960005477</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X25" t="n">
-        <v>473.4444960005477</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>473.4444960005477</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.94416071721</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776798</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776798</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889461</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2566.821187183472</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>2277.64757683804</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V28" t="n">
-        <v>2022.963088632153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785527</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889451</v>
+        <v>353.7013509109331</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757142</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.54400078133</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6537,13 +6537,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
         <v>670.8219208598713</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036444</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036444</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>208.5445361866201</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6628,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.915471247702</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.952954307291</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="D32" t="n">
-        <v>1122.952954307291</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>753.3585633793437</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>342.3726585897361</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533142</v>
@@ -6737,13 +6737,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.654643287636</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.515311311824</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>208.5445361866201</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>2471.7452186737</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V34" t="n">
-        <v>2471.7452186737</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W34" t="n">
-        <v>2471.7452186737</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X34" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1194.175505447095</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C35" t="n">
-        <v>825.2129885066831</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D35" t="n">
-        <v>466.9472898999326</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E35" t="n">
-        <v>466.9472898999326</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F35" t="n">
-        <v>466.9472898999326</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.380435748108</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X35" t="n">
-        <v>1970.914677487028</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y35" t="n">
-        <v>1580.775345511217</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2407.975480672791</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W37" t="n">
-        <v>2407.975480672791</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X37" t="n">
-        <v>2179.985929774773</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1970.914677487028</v>
+        <v>1525.597764264521</v>
       </c>
       <c r="C38" t="n">
-        <v>1601.952160546617</v>
+        <v>1525.597764264521</v>
       </c>
       <c r="D38" t="n">
-        <v>1243.686461939866</v>
+        <v>1167.332065657771</v>
       </c>
       <c r="E38" t="n">
-        <v>857.8982093416219</v>
+        <v>781.5438130595267</v>
       </c>
       <c r="F38" t="n">
-        <v>446.9123045520143</v>
+        <v>370.5579082699191</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7199,25 +7199,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.380435748108</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X38" t="n">
-        <v>1970.914677487028</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y38" t="n">
-        <v>1970.914677487028</v>
+        <v>1912.197604328643</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7266,10 +7266,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>366.9506135266865</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7357,25 +7357,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V40" t="n">
-        <v>184.2708856551153</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1584.314837422907</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>1215.352320482495</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D41" t="n">
-        <v>1215.352320482495</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E41" t="n">
-        <v>829.5640678842506</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F41" t="n">
-        <v>418.578163094643</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7409,13 +7409,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>1970.914677487028</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1970.914677487028</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7464,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2515.500626187983</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C43" t="n">
-        <v>2346.564443260076</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D43" t="n">
-        <v>2346.564443260076</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E43" t="n">
-        <v>2346.564443260076</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F43" t="n">
-        <v>2346.564443260076</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G43" t="n">
-        <v>2177.564642998408</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H43" t="n">
-        <v>2159.291999533505</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>2697.149091018222</v>
+        <v>698.6685303810933</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.944160717209</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776797</v>
+        <v>743.4641313436939</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776797</v>
+        <v>385.1984327369434</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785532</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889456</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
         <v>881.2824271224076</v>
@@ -7664,34 +7664,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1112.426648284106</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="U46" t="n">
-        <v>571.3497027553424</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V46" t="n">
-        <v>571.3497027553424</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W46" t="n">
-        <v>281.9325327183818</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,7 +9492,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23270,7 +23270,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23309,16 +23309,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>123.3414241705569</v>
       </c>
       <c r="U11" t="n">
-        <v>170.102160979652</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>14.84727966881351</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>147.7721088551458</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>41.25137849404621</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -23552,13 +23552,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23695,25 +23695,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229438</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>92.22568407628489</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23792,13 +23792,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23935,7 +23935,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>17.88169127836775</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23944,7 +23944,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>296.9788778378461</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,25 +24014,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>226.9496614670745</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,13 +24142,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0.04372617964844494</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>269.6331328322422</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,19 +24212,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>358.4434405679222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>327.7394124381864</v>
       </c>
     </row>
     <row r="24">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.08210450123468</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24385,7 +24385,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,28 +24406,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24652,16 +24652,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24683,16 +24683,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049790008</v>
+        <v>117.0233846211321</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>3.115350019202054</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24889,16 +24889,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,19 +24917,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>128.2387900191171</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24977,7 +24977,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>3.115350019202054</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25129,7 +25129,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>63.1320406209006</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>283.3847696671663</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,13 +25160,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>4.909905022022485</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,16 +25199,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25366,10 +25366,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>28.98780970275092</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>63.13204062090045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>24.74454051646165</v>
+        <v>100.3353928357359</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25439,10 +25439,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25558,13 +25558,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>13.60313571158719</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
@@ -25597,19 +25597,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>52.79534055925922</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0809718115407</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>189.4188040650073</v>
       </c>
     </row>
     <row r="44">
@@ -25862,25 +25862,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>377.9102464292058</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25910,28 +25910,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>23.94594161440332</v>
       </c>
       <c r="U46" t="n">
-        <v>131.0703856053968</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679508.6335370307</v>
+        <v>679508.6335370305</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679508.6335370305</v>
+        <v>679508.6335370307</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679508.6335370307</v>
+        <v>679508.6335370304</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679508.6335370305</v>
+        <v>679508.6335370304</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679508.6335370304</v>
+        <v>679508.6335370305</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679508.6335370305</v>
+        <v>679508.6335370304</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679508.6335370307</v>
+        <v>679508.6335370305</v>
       </c>
     </row>
     <row r="14">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
+        <v>332525.5015181212</v>
+      </c>
+      <c r="F2" t="n">
         <v>332525.5015181213</v>
-      </c>
-      <c r="F2" t="n">
-        <v>332525.5015181212</v>
       </c>
       <c r="G2" t="n">
         <v>332525.5015181212</v>
       </c>
       <c r="H2" t="n">
-        <v>332525.5015181213</v>
+        <v>332525.5015181212</v>
       </c>
       <c r="I2" t="n">
         <v>332525.5015181213</v>
       </c>
       <c r="J2" t="n">
-        <v>332525.5015181213</v>
+        <v>332525.5015181212</v>
       </c>
       <c r="K2" t="n">
-        <v>332525.5015181213</v>
+        <v>332525.5015181212</v>
       </c>
       <c r="L2" t="n">
         <v>332525.5015181212</v>
       </c>
       <c r="M2" t="n">
-        <v>332525.5015181213</v>
+        <v>332525.5015181212</v>
       </c>
       <c r="N2" t="n">
-        <v>332525.5015181212</v>
+        <v>332525.5015181211</v>
       </c>
       <c r="O2" t="n">
-        <v>332525.5015181212</v>
+        <v>332525.5015181211</v>
       </c>
       <c r="P2" t="n">
         <v>332525.5015181212</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26436,7 +26436,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
         <v>513.1084990597035</v>
@@ -26445,19 +26445,19 @@
         <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="M4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="O4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26485,19 +26485,19 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="J5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="K5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="I5" t="n">
-        <v>49231.47806340948</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="L5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26509,7 +26509,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26519,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339787.0787866102</v>
+        <v>-339787.0787866101</v>
       </c>
       <c r="C6" t="n">
-        <v>250180.8004279345</v>
+        <v>250180.8004279344</v>
       </c>
       <c r="D6" t="n">
         <v>250180.8004279344</v>
       </c>
       <c r="E6" t="n">
-        <v>282780.9149556521</v>
+        <v>282780.914955652</v>
       </c>
       <c r="F6" t="n">
         <v>282780.9149556521</v>
@@ -26537,28 +26537,28 @@
         <v>282780.9149556521</v>
       </c>
       <c r="H6" t="n">
-        <v>282780.9149556522</v>
+        <v>282780.9149556521</v>
       </c>
       <c r="I6" t="n">
         <v>282780.9149556521</v>
       </c>
       <c r="J6" t="n">
-        <v>106357.6957630591</v>
+        <v>106357.695763059</v>
       </c>
       <c r="K6" t="n">
         <v>282780.9149556521</v>
       </c>
       <c r="L6" t="n">
-        <v>282780.9149556521</v>
+        <v>282780.914955652</v>
       </c>
       <c r="M6" t="n">
         <v>282780.9149556521</v>
       </c>
       <c r="N6" t="n">
-        <v>282780.9149556521</v>
+        <v>282780.914955652</v>
       </c>
       <c r="O6" t="n">
-        <v>282780.9149556521</v>
+        <v>282780.914955652</v>
       </c>
       <c r="P6" t="n">
         <v>282780.9149556521</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
@@ -26753,10 +26753,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26777,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26805,31 +26805,31 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>674.2872727545555</v>
       </c>
-      <c r="L4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7331662829374</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>164.5919702762448</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.29936012505812</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>198.8925682453067</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>22.21426855158856</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>290.6893911792373</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>73.51727362161427</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>154.6264010652631</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>157.6847473916802</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>111.7343803072865</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31379,7 +31379,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>149.897181251634</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31841,7 +31841,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31850,7 +31850,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
         <v>193.3156655923047</v>
@@ -32078,13 +32078,13 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>11.76595806653282</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993485</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32561,28 +32561,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,22 +32643,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32704,43 +32704,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,25 +32880,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33892,7 +33892,7 @@
         <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
         <v>193.1674799081577</v>
@@ -33904,7 +33904,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338297</v>
       </c>
       <c r="O38" t="n">
         <v>255.8615389119866</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,7 +35498,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35726,13 +35726,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338903</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,13 +36209,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36528,10 +36528,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O25" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37160,13 +37160,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37552,7 +37552,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.895655249223</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37634,13 +37634,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37871,13 +37871,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,16 +38105,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1661669.476242572</v>
+        <v>1646358.431263307</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113858.5433804264</v>
+        <v>475490.7931709575</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2395347.547096096</v>
+        <v>2357862.325109813</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10261826.95077829</v>
+        <v>10286278.3687308</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97.13416929770798</v>
       </c>
       <c r="I2" t="n">
-        <v>36.31606325004106</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -873,7 +873,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>126.3625816734938</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>286.0499486797341</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>5.985757550887024</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>139.8939792152981</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>346.8766818975654</v>
       </c>
       <c r="H8" t="n">
-        <v>275.2487801718084</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>4.627116085813991</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>101.2879020678339</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.3542113413185</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>104.5113366705975</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>164.6180294004006</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>214.5661762382494</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.3009637486068</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>102.1665731007174</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>53.50170169071307</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>35.4280703932931</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>152.3181986878413</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>195.9625068175369</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8727930405404</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>150.5062927854356</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>208.7844338901268</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>9.275596830496657</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>241.8096925141849</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>349.339709230017</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>33.2098875339526</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.0899848433004</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>344.0969772452174</v>
       </c>
       <c r="G17" t="n">
-        <v>255.0988499581399</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>96.04675908158652</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>141.3836306779003</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1028265769112</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1082018880815</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7554234621014</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>96.89780243894165</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I18" t="n">
-        <v>34.71884533515473</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.556718218862017</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S18" t="n">
-        <v>142.1850271380592</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>193.7635966276314</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8369022322176</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.813850247729</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>222.2568614883001</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2464072976826</v>
+        <v>245.9088110842111</v>
       </c>
       <c r="V19" t="n">
-        <v>11.95962389204871</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>323.5038770089911</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>388.0961508531119</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.3345997681973</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>309.0773614149405</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1082018880815</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7554234621014</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>96.89780243894165</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I21" t="n">
-        <v>34.71884533515473</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.556718218862017</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S21" t="n">
-        <v>142.1850271380592</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T21" t="n">
-        <v>193.7635966276314</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8369022322176</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.980384243197902</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2464072976826</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>109.6223349868443</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>57.64843562452468</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>97.74587998668891</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>140.5678108961698</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.872250580816</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>122.0153542106075</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>41.92656778835364</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>41.92656778835364</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>224.8952567231525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>161.1706059301398</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>140.567810896169</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.5755868835438</v>
+        <v>1134.473993239633</v>
       </c>
       <c r="C2" t="n">
-        <v>919.5755868835438</v>
+        <v>1134.473993239633</v>
       </c>
       <c r="D2" t="n">
-        <v>919.5755868835438</v>
+        <v>1134.473993239633</v>
       </c>
       <c r="E2" t="n">
-        <v>919.5755868835438</v>
+        <v>1134.473993239633</v>
       </c>
       <c r="F2" t="n">
-        <v>508.5896820939362</v>
+        <v>723.4880884500253</v>
       </c>
       <c r="G2" t="n">
-        <v>90.6258739921231</v>
+        <v>305.5242803482122</v>
       </c>
       <c r="H2" t="n">
-        <v>90.6258739921231</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>1521.073833303755</v>
       </c>
     </row>
     <row r="3">
@@ -4391,10 +4391,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2092.477155601806</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="C5" t="n">
-        <v>1723.514638661394</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1557.620289410771</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1171.832036812527</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>760.8461320229192</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>342.882323921106</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.477155601806</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="U7" t="n">
-        <v>195.2500315327868</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1314.38774159731</v>
+        <v>2255.520561484593</v>
       </c>
       <c r="C8" t="n">
-        <v>1314.38774159731</v>
+        <v>1886.558044544181</v>
       </c>
       <c r="D8" t="n">
-        <v>1314.38774159731</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E8" t="n">
-        <v>1314.38774159731</v>
+        <v>1142.504093339187</v>
       </c>
       <c r="F8" t="n">
-        <v>903.4018368077025</v>
+        <v>731.5181885495792</v>
       </c>
       <c r="G8" t="n">
-        <v>485.4380287058893</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036444</v>
@@ -4807,7 +4807,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224075</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.527073573122</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="Y8" t="n">
-        <v>1314.38774159731</v>
+        <v>2642.120401548715</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,52 +4883,52 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>368.8844281164668</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>773.5003462121387</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1297.64725977017</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1851.373795869721</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>240.6022717867172</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>240.6022717867172</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>240.6022717867172</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F10" t="n">
-        <v>240.6022717867172</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036444</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.5099885583417</v>
+        <v>1363.671387719116</v>
       </c>
       <c r="C11" t="n">
-        <v>159.5099885583417</v>
+        <v>994.7088707787038</v>
       </c>
       <c r="D11" t="n">
-        <v>159.5099885583417</v>
+        <v>892.3978585889727</v>
       </c>
       <c r="E11" t="n">
-        <v>159.5099885583417</v>
+        <v>892.3978585889727</v>
       </c>
       <c r="F11" t="n">
-        <v>159.5099885583417</v>
+        <v>481.4119537993651</v>
       </c>
       <c r="G11" t="n">
-        <v>159.5099885583417</v>
+        <v>63.88244739399283</v>
       </c>
       <c r="H11" t="n">
-        <v>159.5099885583417</v>
+        <v>63.88244739399283</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>63.88244739399283</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>215.7775870444396</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>564.1738308751533</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>1048.666806192622</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>1604.36513850851</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>2154.423253260177</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>2628.639895377773</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2995.698445127836</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>3194.122369699642</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548715</v>
+        <v>3194.122369699642</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862885</v>
+        <v>3027.841531921459</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2811.108020569692</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2811.108020569692</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.483574129469</v>
+        <v>2480.045133226121</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859355</v>
+        <v>2127.276477956007</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982752</v>
+        <v>1753.810719694927</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.1098286224635</v>
+        <v>1363.671387719116</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>987.960322082656</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>813.507292801529</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>664.5728831402778</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.3354281348223</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>358.8008701617073</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.1231290014983</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>117.924570313905</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>63.88244739399283</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>63.88244739399283</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>355.9060257624201</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>809.9721611135013</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1391.82514579253</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1847.283056381115</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2096.036470465077</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2475.771104479179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2676.915881557612</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2641.129951867416</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2487.273185516061</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.331259437741</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.176923033155</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.024814801412</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.787458073211</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.935957867678</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.175659102724</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.59950625323009</v>
+        <v>215.9090057631197</v>
       </c>
       <c r="C13" t="n">
-        <v>99.59950625323009</v>
+        <v>215.9090057631197</v>
       </c>
       <c r="D13" t="n">
-        <v>99.59950625323009</v>
+        <v>215.9090057631197</v>
       </c>
       <c r="E13" t="n">
-        <v>99.59950625323009</v>
+        <v>215.9090057631197</v>
       </c>
       <c r="F13" t="n">
-        <v>99.59950625323009</v>
+        <v>215.9090057631197</v>
       </c>
       <c r="G13" t="n">
-        <v>99.59950625323009</v>
+        <v>63.88244739399283</v>
       </c>
       <c r="H13" t="n">
-        <v>99.59950625323009</v>
+        <v>63.88244739399283</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323009</v>
+        <v>63.88244739399283</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>63.88244739399283</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>142.3679338555491</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>298.3287695220707</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>473.1567265041815</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>649.2622818508082</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>795.9079702090264</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>897.8680081961046</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>897.8680081961046</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>897.8680081961046</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>686.97464063032</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810045</v>
+        <v>686.97464063032</v>
       </c>
       <c r="U13" t="n">
-        <v>99.59950625323009</v>
+        <v>686.97464063032</v>
       </c>
       <c r="V13" t="n">
-        <v>99.59950625323009</v>
+        <v>686.97464063032</v>
       </c>
       <c r="W13" t="n">
-        <v>99.59950625323009</v>
+        <v>397.5574705933594</v>
       </c>
       <c r="X13" t="n">
-        <v>99.59950625323009</v>
+        <v>397.5574705933594</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.59950625323009</v>
+        <v>397.5574705933594</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1954.141365880777</v>
+        <v>1842.246382722427</v>
       </c>
       <c r="C14" t="n">
-        <v>1954.141365880777</v>
+        <v>1473.283865782016</v>
       </c>
       <c r="D14" t="n">
-        <v>1595.875667274026</v>
+        <v>1115.018167175265</v>
       </c>
       <c r="E14" t="n">
-        <v>1210.087414675782</v>
+        <v>729.229914577021</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861747</v>
+        <v>318.2440097874134</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>3289.683015573004</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2958.620128229433</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2605.851472959319</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.280697856589</v>
+        <v>2232.385714698239</v>
       </c>
       <c r="Y14" t="n">
-        <v>1954.141365880777</v>
+        <v>1842.246382722427</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>199.3493551844579</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>429.3124610528071</v>
       </c>
       <c r="M15" t="n">
-        <v>1297.64725977017</v>
+        <v>1069.857810519911</v>
       </c>
       <c r="N15" t="n">
-        <v>1851.373795869721</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O15" t="n">
-        <v>2291.509718890065</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P15" t="n">
-        <v>2627.754532504894</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.5654064942401</v>
+        <v>389.4885876291474</v>
       </c>
       <c r="C16" t="n">
-        <v>550.5654064942401</v>
+        <v>389.4885876291474</v>
       </c>
       <c r="D16" t="n">
-        <v>550.5654064942401</v>
+        <v>389.4885876291474</v>
       </c>
       <c r="E16" t="n">
-        <v>550.5654064942401</v>
+        <v>389.4885876291474</v>
       </c>
       <c r="F16" t="n">
-        <v>517.0200655508536</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G16" t="n">
-        <v>348.0202652891861</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>550.5654064942401</v>
+        <v>866.4861918383681</v>
       </c>
       <c r="T16" t="n">
-        <v>550.5654064942401</v>
+        <v>644.1730758350343</v>
       </c>
       <c r="U16" t="n">
-        <v>550.5654064942401</v>
+        <v>644.1730758350343</v>
       </c>
       <c r="V16" t="n">
-        <v>550.5654064942401</v>
+        <v>389.4885876291474</v>
       </c>
       <c r="W16" t="n">
-        <v>550.5654064942401</v>
+        <v>389.4885876291474</v>
       </c>
       <c r="X16" t="n">
-        <v>550.5654064942401</v>
+        <v>389.4885876291474</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.5654064942401</v>
+        <v>389.4885876291474</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1966.887006382147</v>
+        <v>1494.538384180865</v>
       </c>
       <c r="C17" t="n">
-        <v>1597.924489441735</v>
+        <v>1125.575867240454</v>
       </c>
       <c r="D17" t="n">
-        <v>1239.658790834985</v>
+        <v>1125.575867240454</v>
       </c>
       <c r="E17" t="n">
-        <v>853.8705382367407</v>
+        <v>739.7876146422095</v>
       </c>
       <c r="F17" t="n">
-        <v>442.8846334471331</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="G17" t="n">
-        <v>185.20902742881</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H17" t="n">
-        <v>185.20902742881</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I17" t="n">
-        <v>88.19209906357112</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J17" t="n">
-        <v>325.7601138906748</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K17" t="n">
-        <v>802.5577892093654</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L17" t="n">
-        <v>1446.344094318912</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>2179.286948567237</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>2909.45758691965</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3553.749377683569</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P17" t="n">
-        <v>4065.96313197564</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
-        <v>4373.392570021673</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R17" t="n">
-        <v>4409.604953178556</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>4266.79320501906</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T17" t="n">
-        <v>4054.568127668645</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U17" t="n">
-        <v>3800.923479296845</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="V17" t="n">
-        <v>3469.860591953275</v>
+        <v>2997.511969751993</v>
       </c>
       <c r="W17" t="n">
-        <v>3117.09193668316</v>
+        <v>2644.743314481879</v>
       </c>
       <c r="X17" t="n">
-        <v>2743.626178422081</v>
+        <v>2271.277556220799</v>
       </c>
       <c r="Y17" t="n">
-        <v>2353.486846446269</v>
+        <v>1881.138224244987</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4243502130026</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9713209318757</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0369112706244</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7994562651688</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2648982920538</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G18" t="n">
-        <v>221.1382079262947</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>123.2616398061517</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>88.19209906357112</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J18" t="n">
-        <v>235.9926015077589</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K18" t="n">
-        <v>361.3501615655963</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="L18" t="n">
-        <v>656.7569023672435</v>
+        <v>303.9549009949696</v>
       </c>
       <c r="M18" t="n">
-        <v>1375.455078835317</v>
+        <v>944.5002504620735</v>
       </c>
       <c r="N18" t="n">
-        <v>2128.882070868789</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O18" t="n">
-        <v>2377.635484952751</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P18" t="n">
-        <v>2560.278962566102</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
-        <v>2629.673521079431</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
-        <v>2628.101078434116</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>2484.479838900723</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.759034226347</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.640951163502</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.488842931759</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.251486203557</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.399985998024</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.639687233071</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.19209906357112</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C19" t="n">
-        <v>88.19209906357112</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D19" t="n">
-        <v>88.19209906357112</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E19" t="n">
-        <v>88.19209906357112</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F19" t="n">
-        <v>88.19209906357112</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G19" t="n">
-        <v>88.19209906357112</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H19" t="n">
-        <v>88.19209906357112</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I19" t="n">
-        <v>88.19209906357112</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J19" t="n">
-        <v>88.95549972113515</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K19" t="n">
-        <v>220.0468382225166</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L19" t="n">
-        <v>443.3250529390618</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M19" t="n">
-        <v>689.1297475364078</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N19" t="n">
-        <v>934.5243723185883</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O19" t="n">
-        <v>1145.169731061408</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P19" t="n">
-        <v>1301.892543347221</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
-        <v>1326.964214835739</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>1326.964214835739</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>1124.121941858235</v>
+        <v>866.4861918383681</v>
       </c>
       <c r="T19" t="n">
-        <v>899.6200615670227</v>
+        <v>866.4861918383681</v>
       </c>
       <c r="U19" t="n">
-        <v>610.4822764178484</v>
+        <v>618.093453369468</v>
       </c>
       <c r="V19" t="n">
-        <v>598.4018482440619</v>
+        <v>363.4089651635811</v>
       </c>
       <c r="W19" t="n">
-        <v>308.9846782071012</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="X19" t="n">
-        <v>308.9846782071012</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="Y19" t="n">
-        <v>88.19209906357112</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2321.923831892058</v>
+        <v>2452.998035652587</v>
       </c>
       <c r="C20" t="n">
-        <v>1952.961314951646</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="D20" t="n">
-        <v>1594.695616344896</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E20" t="n">
-        <v>1208.907363746652</v>
+        <v>1339.981567507181</v>
       </c>
       <c r="F20" t="n">
-        <v>816.8910497536092</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="G20" t="n">
-        <v>400.3914540281575</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H20" t="n">
-        <v>88.19209906357112</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I20" t="n">
-        <v>88.19209906357112</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J20" t="n">
-        <v>325.7601138906749</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K20" t="n">
-        <v>802.5577892093655</v>
+        <v>666.0988071604015</v>
       </c>
       <c r="L20" t="n">
-        <v>1446.344094318911</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M20" t="n">
-        <v>2179.286948567236</v>
+        <v>1850.629876389911</v>
       </c>
       <c r="N20" t="n">
-        <v>2909.457586919649</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O20" t="n">
-        <v>3553.749377683569</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
-        <v>4065.96313197564</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q20" t="n">
-        <v>4373.392570021673</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R20" t="n">
-        <v>4409.604953178556</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S20" t="n">
-        <v>4409.604953178556</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T20" t="n">
-        <v>4409.604953178556</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U20" t="n">
-        <v>4155.960304806757</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="V20" t="n">
-        <v>3824.897417463186</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="W20" t="n">
-        <v>3472.128762193071</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="X20" t="n">
-        <v>3098.663003931992</v>
+        <v>3169.908960566774</v>
       </c>
       <c r="Y20" t="n">
-        <v>2708.52367195618</v>
+        <v>2779.769628590962</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4243502130026</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9713209318757</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0369112706244</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7994562651688</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2648982920538</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G21" t="n">
-        <v>221.1382079262947</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>123.2616398061517</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>88.19209906357112</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J21" t="n">
-        <v>88.19209906357112</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K21" t="n">
-        <v>467.4275421731659</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="L21" t="n">
-        <v>1038.760792281329</v>
+        <v>303.9549009949696</v>
       </c>
       <c r="M21" t="n">
-        <v>1375.455078835317</v>
+        <v>944.5002504620735</v>
       </c>
       <c r="N21" t="n">
-        <v>2128.882070868789</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O21" t="n">
-        <v>2377.635484952751</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
-        <v>2560.278962566102</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2629.673521079431</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R21" t="n">
-        <v>2628.101078434116</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S21" t="n">
-        <v>2484.479838900723</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.759034226347</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.640951163502</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.488842931759</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.251486203557</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.399985998024</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.639687233071</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>382.9951401438746</v>
+        <v>81.04268830156789</v>
       </c>
       <c r="C22" t="n">
-        <v>382.9951401438746</v>
+        <v>81.04268830156789</v>
       </c>
       <c r="D22" t="n">
-        <v>382.9951401438746</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="E22" t="n">
-        <v>235.0820465614815</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="F22" t="n">
-        <v>88.19209906357112</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G22" t="n">
-        <v>88.19209906357112</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H22" t="n">
-        <v>88.19209906357112</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I22" t="n">
-        <v>88.19209906357112</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J22" t="n">
-        <v>88.95549972113515</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K22" t="n">
-        <v>220.0468382225166</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L22" t="n">
-        <v>443.3250529390618</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M22" t="n">
-        <v>689.1297475364078</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N22" t="n">
-        <v>934.5243723185883</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O22" t="n">
-        <v>1145.169731061408</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P22" t="n">
-        <v>1301.892543347221</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q22" t="n">
-        <v>1326.964214835739</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>1326.964214835739</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>1326.964214835739</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>1326.964214835739</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>1037.826429686565</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V22" t="n">
-        <v>783.1419414806779</v>
+        <v>819.2419883800759</v>
       </c>
       <c r="W22" t="n">
-        <v>493.7247714437173</v>
+        <v>529.8248183431153</v>
       </c>
       <c r="X22" t="n">
-        <v>382.9951401438746</v>
+        <v>301.835267445098</v>
       </c>
       <c r="Y22" t="n">
-        <v>382.9951401438746</v>
+        <v>81.04268830156789</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5986,10 +5986,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -5998,25 +5998,25 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>618.8589595388348</v>
+        <v>890.6321803653035</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1942790685366</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="N24" t="n">
-        <v>1283.714934706155</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3686.322319899658</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C25" t="n">
-        <v>3517.386136971751</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>4606.170084808406</v>
+        <v>1400.183058450136</v>
       </c>
       <c r="W25" t="n">
-        <v>4316.752914771445</v>
+        <v>1110.765888413175</v>
       </c>
       <c r="X25" t="n">
-        <v>4088.763363873428</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="Y25" t="n">
-        <v>3867.970784729898</v>
+        <v>882.7763375151577</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1323.128242957076</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1667.648898594694</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4326.074044281177</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>4326.074044281177</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>4326.074044281177</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>4326.074044281177</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>4326.074044281177</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6466,13 +6466,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1323.128242957076</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1667.648898594694</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1916.402312678656</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.702934414403</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1364.414563824403</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1364.414563824403</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.4856756861153</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C34" t="n">
-        <v>699.5494927582084</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D34" t="n">
-        <v>549.4328533458727</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E34" t="n">
-        <v>401.5197597634796</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F34" t="n">
-        <v>401.5197597634796</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6891,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>1270.926719659885</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.134140516355</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1942790685366</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1743.605857332687</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1992.35927141665</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1270.926719659885</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,22 +7159,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>741.6306675263494</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1509.998813918811</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1854.519469556429</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4633.68764703131</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>4379.003158825423</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>4089.585988788463</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>3861.596437890445</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>3640.803858746915</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,40 +7396,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>1442.339749591389</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N42" t="n">
-        <v>1786.860405229007</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>2035.613819312969</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1336.117678709276</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>1336.117678709276</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>1046.700508672316</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>818.7109577742983</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.9183786307682</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
         <v>3183.709822619127</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>784.1783943330313</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1552.546540725493</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1897.067196363111</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>964.135741824786</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>964.135741824786</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9728,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9968,16 +9968,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,10 +10916,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>253.3951395528491</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>319.5194584381684</v>
       </c>
       <c r="I11" t="n">
-        <v>47.41997957426375</v>
+        <v>135.3553342543432</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.47001067514556</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1897708139312</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>16.61064481185835</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>154.4561466672649</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>129.1656554187737</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>31.56442760231835</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>12.97296450542734</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>137.9932954615212</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>224.2110473578499</v>
       </c>
       <c r="U13" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2713543513364</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>171.1072114317518</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>20.39139144845205</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>112.2111604889786</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>3.282919877458255</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23737,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>62.77906849649401</v>
       </c>
       <c r="G17" t="n">
-        <v>157.2357498100574</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>309.0773614149405</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.6595749469737</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>150.3897769216911</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>115.4115131709637</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>117.4286075662164</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>40.3518435738859</v>
       </c>
       <c r="V19" t="n">
-        <v>240.1780194317793</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>59.22996465448949</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>18.77989488859953</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>96.04675908158652</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>141.3836306779003</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1028265769112</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,25 +24132,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6350887750145</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.6595749469737</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>150.3897769216911</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>115.4115131709637</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>117.4286075662164</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
-        <v>200.813850247729</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>222.2568614883001</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>116.0873204021929</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>90.96703739368768</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24423,7 +24423,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>154.3917633371391</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>8.047662122042567</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>5.621317882561556</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>26.60011880760486</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>124.5670006750239</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>124.5670006750239</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25605,7 +25605,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>61.34209567542487</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25842,10 +25842,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>125.0667464684375</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>8.047662122043363</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679508.6335370305</v>
+        <v>736110.9665779276</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679508.6335370305</v>
+        <v>793678.7908793101</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>870256.0089041219</v>
+        <v>793678.7908793101</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>870256.0089041222</v>
+        <v>793678.7908793103</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
@@ -26322,40 +26322,40 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>332525.5015181212</v>
+        <v>360224.5155594112</v>
       </c>
       <c r="F2" t="n">
-        <v>332525.5015181212</v>
+        <v>388396.0040473215</v>
       </c>
       <c r="G2" t="n">
-        <v>425869.9618041444</v>
+        <v>388396.0040473216</v>
       </c>
       <c r="H2" t="n">
-        <v>425869.9618041443</v>
+        <v>388396.0040473218</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.418698365</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983651</v>
       </c>
       <c r="L2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="M2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.418698365</v>
       </c>
-      <c r="M2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>449683.4186983651</v>
-      </c>
-      <c r="P2" t="n">
-        <v>449683.4186983652</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>123022.057526192</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>122192.163835928</v>
       </c>
       <c r="G3" t="n">
-        <v>397686.3454566935</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>99295.86104592061</v>
+        <v>255532.1595990993</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>30961.93223513112</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>30950.6526513662</v>
       </c>
       <c r="O3" t="n">
-        <v>103026.0539211866</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26426,19 +26426,19 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>513.1084990597035</v>
+        <v>575.7202558838146</v>
       </c>
       <c r="F4" t="n">
-        <v>513.1084990597035</v>
+        <v>639.5264553066582</v>
       </c>
       <c r="G4" t="n">
-        <v>729.5057670599354</v>
+        <v>639.5264553066582</v>
       </c>
       <c r="H4" t="n">
-        <v>729.5057670599354</v>
+        <v>639.5264553066582</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758694</v>
@@ -26450,16 +26450,16 @@
         <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>59117.03032849827</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
-        <v>83121.46425552097</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="H5" t="n">
-        <v>83121.46425552097</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339787.0787866101</v>
+        <v>-339787.07878661</v>
       </c>
       <c r="C6" t="n">
         <v>250180.8004279345</v>
       </c>
       <c r="D6" t="n">
-        <v>250180.8004279345</v>
+        <v>250180.8004279344</v>
       </c>
       <c r="E6" t="n">
-        <v>282780.914955652</v>
+        <v>172645.5986613349</v>
       </c>
       <c r="F6" t="n">
-        <v>282780.9149556521</v>
+        <v>192753.5090105445</v>
       </c>
       <c r="G6" t="n">
-        <v>-55667.35367513003</v>
+        <v>314945.6728464726</v>
       </c>
       <c r="H6" t="n">
-        <v>342018.9917815634</v>
+        <v>314945.6728464728</v>
       </c>
       <c r="I6" t="n">
-        <v>257612.4380131521</v>
+        <v>100401.5482002518</v>
       </c>
       <c r="J6" t="n">
-        <v>180485.0798664797</v>
+        <v>179510.4886067579</v>
       </c>
       <c r="K6" t="n">
-        <v>356908.2990590726</v>
+        <v>355933.707799351</v>
       </c>
       <c r="L6" t="n">
-        <v>356908.2990590726</v>
+        <v>355933.707799351</v>
       </c>
       <c r="M6" t="n">
-        <v>356908.2990590728</v>
+        <v>324971.7755642199</v>
       </c>
       <c r="N6" t="n">
-        <v>356908.2990590727</v>
+        <v>324983.0551479846</v>
       </c>
       <c r="O6" t="n">
-        <v>253882.245137886</v>
+        <v>355933.707799351</v>
       </c>
       <c r="P6" t="n">
-        <v>356908.2990590726</v>
+        <v>355933.707799351</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>484.6958857368678</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="G3" t="n">
-        <v>738.3242645507767</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="H3" t="n">
-        <v>738.3242645507767</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>798.5305924249104</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
-        <v>1102.401238294639</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="H4" t="n">
-        <v>1102.401238294639</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>106.9522215197812</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>108.7802146011957</v>
       </c>
       <c r="G3" t="n">
-        <v>360.5806003336901</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>92.05814090332353</v>
+        <v>236.9063051160367</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>124.2433196703549</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>126.3668466578458</v>
       </c>
       <c r="G4" t="n">
-        <v>428.1139655400833</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>112.8124049589342</v>
+        <v>290.3162041708165</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>124.2433196703549</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>126.3668466578458</v>
       </c>
       <c r="O4" t="n">
-        <v>428.1139655400833</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>124.2433196703549</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>126.3668466578458</v>
       </c>
       <c r="O4" t="n">
-        <v>428.1139655400833</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>226.7886034666492</v>
       </c>
       <c r="I2" t="n">
-        <v>115.6152529948202</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>228.3204599471891</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>37.87282408462301</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>206.1597813991319</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>112.2436641085299</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>66.90748812322954</v>
       </c>
       <c r="H8" t="n">
-        <v>48.67399259254876</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>162.6826861732369</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31606,7 +31606,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>115.4815392304395</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31618,13 +31618,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516334</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.948526173816552</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>19.95534367759877</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>75.12055531606272</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>165.3787233449628</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>247.8598362826175</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>307.4920441745559</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>342.144146518166</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>347.6803965095223</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>328.3047393686339</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>280.2004994525377</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>210.4189058527324</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>122.3991072660041</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>44.40204018584473</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>8.529673325881964</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1558820939053242</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>1.042553414603829</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>10.06887113577909</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>35.89493116070201</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>168.3495134450402</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>226.3666964472042</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>264.1592577265929</v>
       </c>
       <c r="N12" t="n">
-        <v>91.88325107529255</v>
+        <v>112.0578332838046</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>199.081976162375</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>133.0810288536397</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>64.72976375935004</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>19.36497241599655</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>4.20222187728473</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.06858904043446246</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.8740417611648434</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>7.771025840174705</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>26.28481950848457</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>61.79475251435443</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>101.54776097897</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>129.946172382635</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>137.0100189796854</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>133.7522269607984</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>123.5418300235545</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>105.7113780957916</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>73.18907874626704</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>39.30009591564831</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>15.23216414684549</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>3.734542070431603</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.04767500515444607</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>190.1500580638415</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>38.22338698595604</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.968137746937793</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H17" t="n">
-        <v>30.39744070082669</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>114.4291304888194</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J17" t="n">
-        <v>251.9169810991618</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>377.5582519270386</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L17" t="n">
-        <v>468.3943974998862</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M17" t="n">
-        <v>521.1790171569912</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N17" t="n">
-        <v>529.6122385304783</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O17" t="n">
-        <v>500.0978188093655</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P17" t="n">
-        <v>426.8219181818387</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q17" t="n">
-        <v>320.5254851196289</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R17" t="n">
-        <v>186.4472827460813</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>67.63643890834503</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T17" t="n">
-        <v>12.9930229872202</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2374510197550234</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.588093701109218</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>15.33764179755482</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>54.67778751626035</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J18" t="n">
-        <v>150.0400281385687</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>66.10468175080609</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>402.3867241801732</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>413.0367034301557</v>
+        <v>164.8471850241756</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>98.60111593378112</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S18" t="n">
-        <v>29.49814396577865</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>6.401132067190222</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1044798487571854</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.331404411485007</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>11.83739558574852</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I19" t="n">
-        <v>40.03896175629458</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J19" t="n">
-        <v>94.13029189198998</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K19" t="n">
-        <v>154.6849852616217</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L19" t="n">
-        <v>197.9435249584164</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M19" t="n">
-        <v>208.7036933385088</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
-        <v>203.7411859866103</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O19" t="n">
-        <v>188.1879617251718</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P19" t="n">
-        <v>161.0273117308775</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>111.4869639471673</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R19" t="n">
-        <v>59.86478381095311</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S19" t="n">
-        <v>23.20274778924325</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>5.688727939981391</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07262205880827319</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.968137746937793</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H20" t="n">
-        <v>30.39744070082669</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>114.4291304888194</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J20" t="n">
-        <v>251.9169810991618</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>377.5582519270386</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L20" t="n">
-        <v>468.3943974998862</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M20" t="n">
-        <v>521.1790171569912</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N20" t="n">
-        <v>529.6122385304783</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O20" t="n">
-        <v>500.0978188093655</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P20" t="n">
-        <v>426.8219181818387</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q20" t="n">
-        <v>320.5254851196289</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R20" t="n">
-        <v>186.4472827460813</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>67.63643890834503</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T20" t="n">
-        <v>12.9930229872202</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2374510197550234</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.588093701109218</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H21" t="n">
-        <v>15.33764179755482</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>54.67778751626035</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>256.4423061128863</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>344.8183275149642</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>16.52420911543987</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N21" t="n">
-        <v>413.0367034301557</v>
+        <v>164.8471850241756</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>98.60111593378112</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S21" t="n">
-        <v>29.49814396577865</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T21" t="n">
-        <v>6.401132067190222</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1044798487571854</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.331404411485007</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>11.83739558574852</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I22" t="n">
-        <v>40.03896175629458</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J22" t="n">
-        <v>94.13029189198998</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K22" t="n">
-        <v>154.6849852616217</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L22" t="n">
-        <v>197.9435249584164</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M22" t="n">
-        <v>208.7036933385088</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
-        <v>203.7411859866103</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O22" t="n">
-        <v>188.1879617251718</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P22" t="n">
-        <v>161.0273117308775</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>111.4869639471673</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R22" t="n">
-        <v>59.86478381095311</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S22" t="n">
-        <v>23.20274778924325</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>5.688727939981391</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07262205880827319</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,25 +32788,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>154.1027416082383</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>278.4799167015761</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -33025,31 +33025,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>231.7356543115324</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33262,28 +33262,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>118.6626388367732</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33499,25 +33499,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>41.70335441144101</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33736,28 +33736,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>155.0114535660847</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33973,25 +33973,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>250.6356242882344</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -34210,31 +34210,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>339.3147979156453</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,19 +34447,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>166.989328074946</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34468,16 +34468,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>242.1053372686591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839184</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>153.4294339903502</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>351.9153978088017</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>489.3868437550191</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>561.3114467837257</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>555.6142573249156</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>479.0067092096925</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>370.7662118687508</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>200.4282066381876</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>294.9733114832599</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>458.6526619707892</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>587.7302875545745</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355128</v>
+        <v>460.0584955440248</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>383.5703373879819</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>203.1765425034672</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>79.27826915308712</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>157.5361976429512</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>176.593895941526</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>177.884399340027</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>148.1269579375941</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>102.9899373606851</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>513.7210878918231</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>386.2240492461763</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>239.9676917445493</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K17" t="n">
-        <v>481.6138134532228</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L17" t="n">
-        <v>650.2891970803494</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M17" t="n">
-        <v>740.346317422551</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N17" t="n">
-        <v>737.5460993458715</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>650.7997886504241</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P17" t="n">
-        <v>517.3876305980518</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q17" t="n">
-        <v>310.534785905084</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R17" t="n">
-        <v>36.57816480493165</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.2934368123109</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>298.3906472743911</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>725.9577540081548</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N18" t="n">
-        <v>761.037365690376</v>
+        <v>512.8478472843958</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.771111775317209</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>132.4154934357388</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>225.5335502187326</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M19" t="n">
-        <v>248.2875703003494</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
-        <v>247.8733583658389</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O19" t="n">
-        <v>212.7730896392115</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
-        <v>158.305870995771</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.32492069547288</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>239.9676917445493</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K20" t="n">
-        <v>481.6138134532228</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L20" t="n">
-        <v>650.2891970803494</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M20" t="n">
-        <v>740.346317422551</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N20" t="n">
-        <v>737.5460993458715</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O20" t="n">
-        <v>650.7997886504241</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P20" t="n">
-        <v>517.3876305980518</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q20" t="n">
-        <v>310.534785905084</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R20" t="n">
-        <v>36.57816480493165</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>383.0661041511059</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>577.1042930385491</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>340.0952389434215</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N21" t="n">
-        <v>761.037365690376</v>
+        <v>512.8478472843958</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.771111775317209</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>132.4154934357388</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>225.5335502187326</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M22" t="n">
-        <v>248.2875703003494</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
-        <v>247.8733583658389</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O22" t="n">
-        <v>212.7730896392115</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P22" t="n">
-        <v>158.305870995771</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.32492069547288</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>386.3887071318233</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>529.7459915338612</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>483.0017291438175</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>188.7581524866008</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>365.2743842394226</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>339.4998147916916</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>482.9215898118194</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>523.8031591412522</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>399.275293598531</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
